--- a/input/l2/xls_form_iraq_v1.xlsx
+++ b/input/l2/xls_form_iraq_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="valueSet" sheetId="1" state="visible" r:id="rId2"/>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">The health care worker would like to add an Eye problem</t>
   </si>
   <si>
-    <t xml:space="preserve">EmCare.B14S2.DE47</t>
+    <t xml:space="preserve">row</t>
   </si>
   <si>
     <t xml:space="preserve">No - Do not add a Skin or Mouth or Eye Problem</t>
@@ -3741,7 +3741,7 @@
     <t xml:space="preserve">As you cannot measure the weight, the weight for length/height or weight for age  will be used</t>
   </si>
   <si>
-    <t xml:space="preserve">≥2 years old</t>
+    <t xml:space="preserve">&gt;=2 years old</t>
   </si>
   <si>
     <t xml:space="preserve">Height Q</t>
@@ -3855,7 +3855,7 @@
     <t xml:space="preserve">^(\d\d?\.\d)$</t>
   </si>
   <si>
-    <t xml:space="preserve">≥6 months old</t>
+    <t xml:space="preserve">&gt;=6 months old</t>
   </si>
   <si>
     <t xml:space="preserve">EmCare.B6.DE17</t>
@@ -3864,7 +3864,7 @@
     <t xml:space="preserve">MUAC (mm)</t>
   </si>
   <si>
-    <t xml:space="preserve">The client's Mid Upper Arm Circumference in Millimeters (child ≥6 months old)</t>
+    <t xml:space="preserve">The client's Mid Upper Arm Circumference in Millimeters (child &gt;=6 months old)</t>
   </si>
   <si>
     <t xml:space="preserve">Mid Upper Arm Circumference</t>
@@ -5857,6 +5857,9 @@
 iif("Axillary Temperature (second measurement)".exists(), "Normal",{}))))</t>
   </si>
   <si>
+    <t xml:space="preserve">"Axillary Temperature (second measurement)".exists()</t>
+  </si>
+  <si>
     <t xml:space="preserve">emcarecombineddataelements::C::{{LIB_VERSION}}</t>
   </si>
   <si>
@@ -6344,27 +6347,6 @@
   </si>
   <si>
     <t xml:space="preserve">Profile Weight</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">readonly</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">||unit::kg</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">EmCare.B23.DE01</t>
@@ -8600,7 +8582,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8710,12 +8692,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -8753,12 +8729,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -8784,11 +8754,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8973,14 +8938,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="125">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9185,10 +9150,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9229,7 +9190,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9241,11 +9202,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9253,7 +9214,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9273,15 +9234,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9297,19 +9254,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9381,27 +9338,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9421,7 +9374,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9429,7 +9382,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9445,15 +9398,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9477,14 +9430,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="15" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9497,11 +9442,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9587,11 +9528,11 @@
   </sheetPr>
   <dimension ref="A1:J236"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E146" activeCellId="0" sqref="E146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.41"/>
@@ -11223,7 +11164,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -13304,7 +13245,7 @@
       <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.41"/>
@@ -13709,7 +13650,7 @@
       <c r="D15" s="0" t="s">
         <v>1288</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="77" t="s">
         <v>1289</v>
       </c>
       <c r="F15" s="31"/>
@@ -13821,7 +13762,7 @@
       <c r="D19" s="0" t="s">
         <v>1294</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="59" t="s">
         <v>1295</v>
       </c>
       <c r="F19" s="31"/>
@@ -14441,7 +14382,7 @@
       <c r="D37" s="0" t="s">
         <v>1324</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="59" t="s">
         <v>1325</v>
       </c>
       <c r="F37" s="31"/>
@@ -14680,7 +14621,7 @@
       <c r="A43" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="56" t="s">
         <v>1339</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -14782,7 +14723,7 @@
       <selection pane="bottomRight" activeCell="K32" activeCellId="0" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.08"/>
@@ -14895,10 +14836,10 @@
       <c r="A3" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>593</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31" t="s">
         <v>1344</v>
@@ -15037,20 +14978,20 @@
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
     </row>
-    <row r="7" s="80" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="80" t="s">
+    <row r="7" s="78" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="78" t="s">
         <v>576</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="78" t="s">
         <v>1348</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="78" t="s">
         <v>1349</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="79" t="s">
         <v>860</v>
       </c>
     </row>
@@ -15362,16 +15303,16 @@
       <c r="A20" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>1340</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="56"/>
       <c r="E20" s="0" t="s">
         <v>1341</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="55" t="s">
         <v>1361</v>
       </c>
       <c r="I20" s="31"/>
@@ -15445,7 +15386,7 @@
       <c r="E24" s="0" t="s">
         <v>1366</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="80" t="s">
         <v>1367</v>
       </c>
       <c r="J24" s="39" t="s">
@@ -15465,17 +15406,17 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="83"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="83"/>
+      <c r="K25" s="81"/>
       <c r="P25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15808,14 +15749,14 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="56" t="s">
         <v>1403</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>1404</v>
       </c>
       <c r="C38" s="23"/>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="83" t="s">
         <v>1405</v>
       </c>
       <c r="E38" s="24" t="s">
@@ -15848,7 +15789,7 @@
         <v>1408</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="83" t="s">
         <v>1409</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -15874,14 +15815,14 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="111.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="56" t="s">
         <v>1412</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>1413</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="83" t="s">
         <v>1414</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -16038,17 +15979,17 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W47" s="31"/>
     </row>
-    <row r="48" s="86" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W48" s="87"/>
+    <row r="48" s="84" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W48" s="85"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="56" t="s">
         <v>1435</v>
       </c>
-      <c r="C49" s="57"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="0" t="s">
         <v>1436</v>
       </c>
@@ -16075,10 +16016,10 @@
       <c r="A53" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="56" t="s">
         <v>1438</v>
       </c>
-      <c r="C53" s="57"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="0" t="s">
         <v>1439</v>
       </c>
@@ -16227,17 +16168,17 @@
       <c r="A58" s="0" t="s">
         <v>1461</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="57"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="0" t="s">
         <v>168</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>1462</v>
       </c>
-      <c r="J58" s="57" t="s">
+      <c r="J58" s="56" t="s">
         <v>1463</v>
       </c>
       <c r="L58" s="0" t="n">
@@ -16261,10 +16202,10 @@
       <c r="A59" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="56" t="s">
         <v>1464</v>
       </c>
-      <c r="C59" s="57"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="0" t="s">
         <v>1465</v>
       </c>
@@ -16274,7 +16215,7 @@
       <c r="F59" s="39" t="s">
         <v>1467</v>
       </c>
-      <c r="J59" s="57" t="s">
+      <c r="J59" s="56" t="s">
         <v>1468</v>
       </c>
       <c r="L59" s="0" t="n">
@@ -16306,7 +16247,7 @@
       <c r="F60" s="39" t="s">
         <v>1472</v>
       </c>
-      <c r="J60" s="57" t="s">
+      <c r="J60" s="56" t="s">
         <v>1473</v>
       </c>
       <c r="L60" s="0" t="n">
@@ -16335,7 +16276,7 @@
       <c r="E61" s="0" t="s">
         <v>1476</v>
       </c>
-      <c r="J61" s="57" t="s">
+      <c r="J61" s="56" t="s">
         <v>1477</v>
       </c>
       <c r="L61" s="0" t="n">
@@ -16355,17 +16296,17 @@
       <c r="A62" s="0" t="s">
         <v>1478</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="57"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="0" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="J62" s="57" t="s">
+      <c r="J62" s="56" t="s">
         <v>1480</v>
       </c>
       <c r="N62" s="0" t="s">
@@ -16383,7 +16324,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J63" s="57"/>
+      <c r="J63" s="56"/>
       <c r="P63" s="31"/>
       <c r="T63" s="42"/>
       <c r="W63" s="31"/>
@@ -16391,7 +16332,7 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="39"/>
       <c r="E64" s="39"/>
-      <c r="J64" s="57"/>
+      <c r="J64" s="56"/>
       <c r="P64" s="31"/>
       <c r="T64" s="42"/>
       <c r="W64" s="31"/>
@@ -16458,10 +16399,10 @@
       <c r="A67" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="56" t="s">
         <v>1492</v>
       </c>
-      <c r="C67" s="57"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="0" t="s">
         <v>1493</v>
       </c>
@@ -16514,7 +16455,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J70" s="57"/>
+      <c r="J70" s="56"/>
       <c r="P70" s="31"/>
       <c r="T70" s="42"/>
       <c r="W70" s="31"/>
@@ -16523,10 +16464,10 @@
       <c r="A71" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="56" t="s">
         <v>1500</v>
       </c>
-      <c r="C71" s="57"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="0" t="s">
         <v>1501</v>
       </c>
@@ -16550,11 +16491,11 @@
       <c r="A72" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="56" t="s">
         <v>1504</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57" t="s">
+      <c r="C72" s="56"/>
+      <c r="D72" s="56" t="s">
         <v>1505</v>
       </c>
       <c r="E72" s="0" t="s">
@@ -16585,10 +16526,10 @@
       <c r="A74" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="56" t="s">
         <v>1508</v>
       </c>
-      <c r="C74" s="57"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="0" t="s">
         <v>1509</v>
       </c>
@@ -16615,10 +16556,10 @@
       <c r="A75" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="56" t="s">
         <v>1513</v>
       </c>
-      <c r="C75" s="57"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="0" t="s">
         <v>1514</v>
       </c>
@@ -16647,10 +16588,10 @@
       <c r="A77" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="56" t="s">
         <v>1516</v>
       </c>
-      <c r="C77" s="57"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="0" t="s">
         <v>1517</v>
       </c>
@@ -16702,13 +16643,13 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="56" t="s">
         <v>576</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="56" t="s">
         <v>1524</v>
       </c>
-      <c r="C80" s="57"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="0" t="s">
         <v>1525</v>
       </c>
@@ -16729,13 +16670,13 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="56" t="s">
         <v>576</v>
       </c>
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="56" t="s">
         <v>1528</v>
       </c>
-      <c r="C81" s="57"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="0" t="s">
         <v>1529</v>
       </c>
@@ -16756,13 +16697,13 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="57" t="s">
+      <c r="A82" s="56" t="s">
         <v>576</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="56" t="s">
         <v>1531</v>
       </c>
-      <c r="C82" s="57"/>
+      <c r="C82" s="56"/>
       <c r="D82" s="0" t="s">
         <v>1532</v>
       </c>
@@ -16783,60 +16724,60 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J83" s="57"/>
+      <c r="J83" s="56"/>
       <c r="P83" s="31"/>
       <c r="T83" s="42"/>
       <c r="W83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="237.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="58" t="s">
+      <c r="A84" s="57" t="s">
         <v>1534</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58" t="s">
+      <c r="C84" s="57"/>
+      <c r="D84" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E84" s="58" t="s">
+      <c r="E84" s="57" t="s">
         <v>1535</v>
       </c>
       <c r="F84" s="39" t="s">
         <v>1536</v>
       </c>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="63" t="s">
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="62" t="s">
         <v>1434</v>
       </c>
-      <c r="K84" s="58"/>
-      <c r="L84" s="58" t="n">
+      <c r="K84" s="57"/>
+      <c r="L84" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58" t="s">
+      <c r="M84" s="57"/>
+      <c r="N84" s="57" t="s">
         <v>1537</v>
       </c>
-      <c r="O84" s="58"/>
+      <c r="O84" s="57"/>
       <c r="P84" s="31" t="s">
         <v>987</v>
       </c>
-      <c r="Q84" s="58"/>
-      <c r="R84" s="58"/>
-      <c r="S84" s="58"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="57"/>
+      <c r="S84" s="57"/>
       <c r="T84" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="U84" s="58"/>
-      <c r="V84" s="58"/>
+      <c r="U84" s="57"/>
+      <c r="V84" s="57"/>
       <c r="W84" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X84" s="58"/>
-      <c r="Y84" s="58"/>
-      <c r="Z84" s="58"/>
+      <c r="X84" s="57"/>
+      <c r="Y84" s="57"/>
+      <c r="Z84" s="57"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -16851,7 +16792,7 @@
       <c r="E85" s="0" t="s">
         <v>1539</v>
       </c>
-      <c r="J85" s="57" t="s">
+      <c r="J85" s="56" t="s">
         <v>1540</v>
       </c>
       <c r="N85" s="0" t="s">
@@ -16872,10 +16813,10 @@
       <c r="A86" s="0" t="s">
         <v>1541</v>
       </c>
-      <c r="B86" s="57" t="s">
+      <c r="B86" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="57"/>
+      <c r="C86" s="56"/>
       <c r="D86" s="0" t="s">
         <v>1542</v>
       </c>
@@ -16899,14 +16840,14 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="57" t="s">
+      <c r="A87" s="56" t="s">
         <v>1544</v>
       </c>
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="56" t="s">
         <v>548</v>
       </c>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57" t="s">
+      <c r="C87" s="56"/>
+      <c r="D87" s="56" t="s">
         <v>549</v>
       </c>
       <c r="E87" s="0" t="s">
@@ -16926,7 +16867,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J88" s="57"/>
+      <c r="J88" s="56"/>
       <c r="W88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16936,7 +16877,7 @@
       <c r="W90" s="31"/>
     </row>
     <row r="91" s="29" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W91" s="70"/>
+      <c r="W91" s="69"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W92" s="31"/>
@@ -17076,10 +17017,10 @@
       <c r="C3" s="0" t="s">
         <v>1547</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="86" t="s">
         <v>1548</v>
       </c>
-      <c r="I3" s="89"/>
+      <c r="I3" s="87"/>
       <c r="N3" s="0" t="s">
         <v>860</v>
       </c>
@@ -17126,7 +17067,7 @@
         <v>974</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>776</v>
       </c>
       <c r="F5" s="31"/>
@@ -17159,7 +17100,7 @@
         <v>576</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="69" t="s">
         <v>1549</v>
       </c>
       <c r="D6" s="31" t="s">
@@ -17199,7 +17140,7 @@
       <c r="B7" s="28" t="s">
         <v>1549</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -17231,7 +17172,7 @@
       <c r="B8" s="28" t="s">
         <v>1549</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -17259,7 +17200,7 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="70"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -17284,7 +17225,7 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="70"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
@@ -17310,7 +17251,7 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -17530,7 +17471,7 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.08"/>
@@ -17634,7 +17575,7 @@
       <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>1582</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -17667,7 +17608,7 @@
       <c r="A4" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>1585</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -17703,7 +17644,7 @@
       <c r="B5" s="0" t="s">
         <v>1008</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>1009</v>
       </c>
       <c r="D5" s="31"/>
@@ -17739,7 +17680,7 @@
       <c r="B6" s="0" t="s">
         <v>1012</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>1013</v>
       </c>
       <c r="D6" s="31"/>
@@ -17770,8 +17711,8 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -17796,8 +17737,8 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -17822,8 +17763,8 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -17920,7 +17861,7 @@
       <c r="D12" s="29" t="s">
         <v>1599</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="69" t="s">
         <v>1600</v>
       </c>
       <c r="I12" s="29" t="s">
@@ -18189,7 +18130,7 @@
       <c r="C4" s="30" t="s">
         <v>1547</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="88" t="s">
         <v>1612</v>
       </c>
       <c r="N4" s="30" t="s">
@@ -18481,7 +18422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18493,23 +18434,23 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P20" s="31"/>
     </row>
-    <row r="21" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P21" s="31"/>
     </row>
-    <row r="22" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P22" s="31"/>
     </row>
-    <row r="23" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="91"/>
+    <row r="23" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="89"/>
       <c r="P23" s="31"/>
     </row>
-    <row r="24" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P25" s="31"/>
     </row>
-    <row r="26" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18537,29 +18478,29 @@
       <c r="P34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="72"/>
+      <c r="I35" s="71"/>
       <c r="P35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P36" s="31"/>
     </row>
-    <row r="37" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P37" s="31"/>
     </row>
-    <row r="38" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P38" s="31"/>
     </row>
-    <row r="39" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P39" s="31"/>
     </row>
-    <row r="40" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="72"/>
+      <c r="J42" s="71"/>
       <c r="P42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18579,22 +18520,22 @@
       <c r="P47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="72"/>
+      <c r="J48" s="71"/>
       <c r="P48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="72"/>
+      <c r="J50" s="71"/>
       <c r="P50" s="31"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="72"/>
+      <c r="J51" s="71"/>
       <c r="P51" s="31"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="72"/>
+      <c r="J52" s="71"/>
       <c r="P52" s="31"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18633,7 +18574,7 @@
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.83"/>
@@ -18728,7 +18669,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31"/>
-      <c r="B3" s="56"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -18847,7 +18788,7 @@
     </row>
     <row r="9" s="29" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31"/>
-      <c r="D9" s="92"/>
+      <c r="D9" s="90"/>
       <c r="O9" s="31"/>
     </row>
     <row r="10" s="29" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19101,34 +19042,34 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
       <c r="L2" s="41"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
       <c r="W2" s="41"/>
       <c r="X2" s="41"/>
       <c r="Y2" s="41"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="91" t="s">
         <v>974</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="91" t="s">
         <v>781</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="91" t="s">
         <v>1277</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="91" t="s">
         <v>783</v>
       </c>
-      <c r="E3" s="93"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34" t="s">
         <v>976</v>
@@ -19153,24 +19094,24 @@
       <c r="X3" s="34"/>
       <c r="Y3" s="34"/>
     </row>
-    <row r="4" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="72" t="s">
+    <row r="4" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>1653</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>1654</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>1655</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>1656</v>
       </c>
       <c r="O4" s="34"/>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="71" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19442,7 +19383,7 @@
       <c r="D14" s="30" t="s">
         <v>1687</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="92" t="s">
         <v>1688</v>
       </c>
       <c r="I14" s="30" t="s">
@@ -19474,7 +19415,7 @@
       <c r="C15" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="H15" s="94" t="s">
+      <c r="H15" s="92" t="s">
         <v>1691</v>
       </c>
       <c r="M15" s="30" t="s">
@@ -19492,7 +19433,7 @@
       <c r="C16" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="H16" s="94" t="s">
+      <c r="H16" s="92" t="s">
         <v>1692</v>
       </c>
       <c r="M16" s="30" t="s">
@@ -19510,7 +19451,7 @@
       <c r="C17" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="H17" s="94" t="s">
+      <c r="H17" s="92" t="s">
         <v>1693</v>
       </c>
       <c r="M17" s="30" t="s">
@@ -19528,7 +19469,7 @@
       <c r="C18" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="H18" s="94" t="s">
+      <c r="H18" s="92" t="s">
         <v>1694</v>
       </c>
       <c r="M18" s="30" t="s">
@@ -19537,78 +19478,78 @@
       <c r="O18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="94"/>
+      <c r="H19" s="92"/>
       <c r="O19" s="34"/>
     </row>
-    <row r="21" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="72" t="s">
+    <row r="21" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>1695</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="71" t="s">
         <v>1696</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="71" t="s">
         <v>1697</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="71" t="s">
         <v>1698</v>
       </c>
-      <c r="M21" s="72" t="s">
+      <c r="M21" s="71" t="s">
         <v>846</v>
       </c>
       <c r="O21" s="34" t="s">
         <v>949</v>
       </c>
-      <c r="S21" s="72" t="s">
+      <c r="S21" s="71" t="s">
         <v>951</v>
       </c>
-      <c r="V21" s="72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V21" s="71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O22" s="34"/>
     </row>
-    <row r="23" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="72" t="s">
+    <row r="23" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="71" t="s">
         <v>1699</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="71" t="s">
         <v>1700</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="71" t="s">
         <v>1701</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="71" t="s">
         <v>1702</v>
       </c>
-      <c r="M23" s="72" t="s">
+      <c r="M23" s="71" t="s">
         <v>846</v>
       </c>
       <c r="O23" s="34" t="s">
         <v>949</v>
       </c>
-      <c r="S23" s="72" t="s">
+      <c r="S23" s="71" t="s">
         <v>951</v>
       </c>
-      <c r="V23" s="72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V23" s="71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O25" s="34"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="72"/>
+      <c r="I26" s="71"/>
       <c r="O26" s="34"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19630,7 +19571,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="34"/>
       <c r="D32" s="38"/>
-      <c r="I32" s="84"/>
+      <c r="I32" s="82"/>
       <c r="O32" s="34"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19639,15 +19580,15 @@
       <c r="O33" s="34"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="72"/>
+      <c r="I34" s="71"/>
       <c r="O34" s="34"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="72"/>
+      <c r="I35" s="71"/>
       <c r="O35" s="34"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="72"/>
+      <c r="I36" s="71"/>
       <c r="O36" s="34"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19686,7 +19627,7 @@
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.75"/>
@@ -19837,7 +19778,7 @@
       <c r="D4" s="38" t="s">
         <v>1705</v>
       </c>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="93" t="s">
         <v>1706</v>
       </c>
       <c r="K4" s="0" t="n">
@@ -19863,7 +19804,7 @@
       <c r="D5" s="34" t="s">
         <v>1709</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="93" t="s">
         <v>1710</v>
       </c>
       <c r="K5" s="0" t="n">
@@ -19919,12 +19860,12 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.75"/>
@@ -20122,7 +20063,7 @@
         <v>1722</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>846</v>
@@ -20145,13 +20086,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="39"/>
-      <c r="H9" s="80"/>
+      <c r="H9" s="78"/>
       <c r="O9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="39"/>
       <c r="D10" s="38"/>
-      <c r="I10" s="95"/>
+      <c r="I10" s="93"/>
       <c r="O10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20212,7 +20153,7 @@
       <selection pane="bottomRight" activeCell="N52" activeCellId="0" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.41"/>
@@ -20352,7 +20293,7 @@
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -20382,7 +20323,7 @@
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -20418,7 +20359,7 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -20461,7 +20402,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -20517,10 +20458,10 @@
         <v>576</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>596</v>
@@ -20534,13 +20475,13 @@
         <v>596</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="10" s="30" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20548,13 +20489,13 @@
         <v>596</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="11" s="30" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20562,13 +20503,13 @@
         <v>596</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="12" s="30" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20576,13 +20517,13 @@
         <v>596</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="13" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20590,34 +20531,34 @@
         <v>596</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="14" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="P14" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
       <c r="T14" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W14" s="40" t="s">
         <v>7</v>
@@ -20629,30 +20570,30 @@
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="16" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C16" s="97" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>1745</v>
-      </c>
-      <c r="J16" s="96" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C16" s="95" t="s">
         <v>1748</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J16" s="94" t="s">
+        <v>1749</v>
       </c>
       <c r="O16" s="40"/>
       <c r="P16" s="40" t="str">
@@ -20663,7 +20604,7 @@
       <c r="R16" s="40"/>
       <c r="S16" s="40"/>
       <c r="T16" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U16" s="40"/>
       <c r="V16" s="40"/>
@@ -20676,30 +20617,30 @@
         <v>576</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="N17" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="18" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>1750</v>
-      </c>
-      <c r="J18" s="96" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C18" s="94" t="s">
         <v>1753</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J18" s="94" t="s">
+        <v>1754</v>
       </c>
       <c r="O18" s="40"/>
       <c r="P18" s="40" t="str">
@@ -20710,7 +20651,7 @@
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
@@ -20723,27 +20664,27 @@
         <v>576</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="N19" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="20" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C20" s="96" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D20" s="97" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C20" s="94" t="s">
         <v>1757</v>
       </c>
-      <c r="J20" s="96" t="s">
+      <c r="D20" s="95" t="s">
         <v>1758</v>
+      </c>
+      <c r="J20" s="94" t="s">
+        <v>1759</v>
       </c>
       <c r="O20" s="40"/>
       <c r="P20" s="40" t="str">
@@ -20754,7 +20695,7 @@
       <c r="R20" s="40"/>
       <c r="S20" s="40"/>
       <c r="T20" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U20" s="40"/>
       <c r="V20" s="40"/>
@@ -20767,27 +20708,27 @@
         <v>576</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="N21" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="22" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C22" s="97" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D22" s="97" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D22" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="J22" s="96" t="s">
-        <v>1762</v>
+      <c r="J22" s="94" t="s">
+        <v>1763</v>
       </c>
       <c r="P22" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
@@ -20797,7 +20738,7 @@
       <c r="R22" s="40"/>
       <c r="S22" s="40"/>
       <c r="T22" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U22" s="40"/>
       <c r="V22" s="40"/>
@@ -20810,13 +20751,13 @@
         <v>576</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="N23" s="30" t="s">
         <v>860</v>
@@ -20827,13 +20768,13 @@
         <v>596</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
@@ -20846,16 +20787,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
@@ -20871,13 +20812,13 @@
         <v>596</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P26" s="34"/>
       <c r="Q26" s="34"/>
@@ -20888,18 +20829,18 @@
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
     </row>
-    <row r="27" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D27" s="97" t="s">
-        <v>1764</v>
-      </c>
-      <c r="J27" s="97" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C27" s="94" t="s">
         <v>1774</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J27" s="95" t="s">
+        <v>1775</v>
       </c>
       <c r="P27" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
@@ -20909,7 +20850,7 @@
       <c r="R27" s="40"/>
       <c r="S27" s="40"/>
       <c r="T27" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U27" s="40"/>
       <c r="V27" s="40"/>
@@ -20922,10 +20863,10 @@
         <v>576</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="N28" s="30" t="s">
         <v>860</v>
@@ -20936,11 +20877,11 @@
         <v>596</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C29" s="28"/>
       <c r="H29" s="0" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="N29" s="30"/>
     </row>
@@ -20949,11 +20890,11 @@
         <v>596</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C30" s="28"/>
       <c r="H30" s="0" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="N30" s="30"/>
     </row>
@@ -20967,18 +20908,18 @@
       <c r="C32" s="28"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D33" s="97" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C33" s="94" t="s">
         <v>1780</v>
       </c>
-      <c r="J33" s="96" t="s">
+      <c r="D33" s="95" t="s">
         <v>1781</v>
+      </c>
+      <c r="J33" s="94" t="s">
+        <v>1782</v>
       </c>
       <c r="P33" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
@@ -20988,7 +20929,7 @@
       <c r="R33" s="40"/>
       <c r="S33" s="40"/>
       <c r="T33" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U33" s="40"/>
       <c r="V33" s="40"/>
@@ -21001,27 +20942,27 @@
         <v>576</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="N34" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="35" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C35" s="96" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D35" s="97" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C35" s="94" t="s">
         <v>1785</v>
       </c>
-      <c r="J35" s="96" t="s">
+      <c r="D35" s="95" t="s">
         <v>1786</v>
+      </c>
+      <c r="J35" s="94" t="s">
+        <v>1787</v>
       </c>
       <c r="P35" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
@@ -21031,7 +20972,7 @@
       <c r="R35" s="40"/>
       <c r="S35" s="40"/>
       <c r="T35" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U35" s="40"/>
       <c r="V35" s="40"/>
@@ -21050,25 +20991,25 @@
         <v>616</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="N36" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="37" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C37" s="97" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D37" s="97" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C37" s="95" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D37" s="95" t="s">
         <v>616</v>
       </c>
       <c r="H37" s="40"/>
-      <c r="J37" s="96" t="s">
-        <v>1789</v>
+      <c r="J37" s="94" t="s">
+        <v>1790</v>
       </c>
       <c r="P37" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
@@ -21078,7 +21019,7 @@
       <c r="R37" s="40"/>
       <c r="S37" s="40"/>
       <c r="T37" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U37" s="40"/>
       <c r="V37" s="40"/>
@@ -21097,24 +21038,24 @@
         <v>633</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="N38" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="39" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C39" s="97" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D39" s="97" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C39" s="95" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D39" s="95" t="s">
         <v>633</v>
       </c>
-      <c r="J39" s="96" t="s">
-        <v>1792</v>
+      <c r="J39" s="94" t="s">
+        <v>1793</v>
       </c>
       <c r="P39" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
@@ -21124,7 +21065,7 @@
       <c r="R39" s="40"/>
       <c r="S39" s="40"/>
       <c r="T39" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
@@ -21137,30 +21078,30 @@
         <v>576</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="N40" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="41" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C41" s="97" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D41" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J41" s="96" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C41" s="95" t="s">
         <v>1797</v>
+      </c>
+      <c r="D41" s="95" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J41" s="94" t="s">
+        <v>1798</v>
       </c>
       <c r="P41" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
@@ -21170,7 +21111,7 @@
       <c r="R41" s="40"/>
       <c r="S41" s="40"/>
       <c r="T41" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U41" s="40"/>
       <c r="V41" s="40"/>
@@ -21183,7 +21124,7 @@
         <v>576</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="H42" s="28" t="s">
         <v>596</v>
@@ -21197,13 +21138,13 @@
         <v>596</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="N43" s="30"/>
     </row>
@@ -21212,13 +21153,13 @@
         <v>596</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21226,13 +21167,13 @@
         <v>596</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21240,13 +21181,13 @@
         <v>596</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21254,10 +21195,10 @@
         <v>576</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="N47" s="30" t="s">
         <v>860</v>
@@ -21268,10 +21209,10 @@
         <v>576</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="N48" s="30" t="s">
         <v>860</v>
@@ -21282,30 +21223,30 @@
         <v>576</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="N49" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="50" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C50" s="96" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D50" s="97" t="s">
-        <v>1812</v>
-      </c>
-      <c r="J50" s="96" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C50" s="94" t="s">
         <v>1815</v>
+      </c>
+      <c r="D50" s="95" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J50" s="94" t="s">
+        <v>1816</v>
       </c>
       <c r="P50" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
@@ -21315,7 +21256,7 @@
       <c r="R50" s="40"/>
       <c r="S50" s="40"/>
       <c r="T50" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U50" s="40"/>
       <c r="V50" s="40"/>
@@ -21323,94 +21264,94 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" s="98" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="98" t="s">
+    <row r="51" s="96" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="99"/>
-      <c r="C51" s="100" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D51" s="101" t="s">
+      <c r="B51" s="97"/>
+      <c r="C51" s="98" t="s">
         <v>1817</v>
       </c>
-      <c r="J51" s="98" t="s">
+      <c r="D51" s="99" t="s">
         <v>1818</v>
       </c>
-      <c r="N51" s="98" t="s">
+      <c r="J51" s="96" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="52" s="98" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="98" t="s">
+      <c r="N51" s="96" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="52" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="99"/>
-      <c r="C52" s="100" t="s">
+      <c r="B52" s="97"/>
+      <c r="C52" s="98" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D52" s="99" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J52" s="96" t="s">
+        <v>1823</v>
+      </c>
+      <c r="N52" s="96" t="s">
         <v>1820</v>
       </c>
-      <c r="D52" s="101" t="s">
-        <v>1821</v>
-      </c>
-      <c r="J52" s="98" t="s">
-        <v>1822</v>
-      </c>
-      <c r="N52" s="98" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="53" s="98" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="98" t="s">
+    </row>
+    <row r="53" s="96" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="100" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D53" s="101" t="s">
+      <c r="B53" s="97"/>
+      <c r="C53" s="98" t="s">
         <v>1824</v>
       </c>
-      <c r="J53" s="98" t="s">
+      <c r="D53" s="99" t="s">
         <v>1825</v>
       </c>
-      <c r="N53" s="98" t="s">
-        <v>1819</v>
+      <c r="J53" s="96" t="s">
+        <v>1826</v>
+      </c>
+      <c r="N53" s="96" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="102"/>
-      <c r="D54" s="103"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="101"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="102"/>
-      <c r="D55" s="103"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="101"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>576</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="N56" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="57" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="94" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C57" s="96" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D57" s="97" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C57" s="94" t="s">
         <v>1829</v>
       </c>
-      <c r="J57" s="96" t="s">
+      <c r="D57" s="95" t="s">
         <v>1830</v>
+      </c>
+      <c r="J57" s="94" t="s">
+        <v>1831</v>
       </c>
       <c r="P57" s="40" t="str">
         <f aca="false">CONCATENATE("SetCondition")</f>
@@ -21420,7 +21361,7 @@
       <c r="R57" s="40"/>
       <c r="S57" s="40"/>
       <c r="T57" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U57" s="40"/>
       <c r="V57" s="40"/>
@@ -21430,19 +21371,19 @@
     </row>
     <row r="59" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="40" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="P59" s="40" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="T59" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
   </sheetData>
@@ -22414,7 +22355,7 @@
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -22447,13 +22388,13 @@
       <c r="A5" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
+      <c r="C5" s="102" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
       <c r="H5" s="34" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="N5" s="34" t="s">
         <v>860</v>
@@ -22463,14 +22404,14 @@
       <c r="A6" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="104" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="102" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
       <c r="H6" s="30" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="P6" s="31"/>
     </row>
@@ -22478,8 +22419,8 @@
       <c r="A7" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="B7" s="104" t="s">
-        <v>1835</v>
+      <c r="B7" s="102" t="s">
+        <v>1836</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>598</v>
@@ -22490,8 +22431,8 @@
       <c r="A8" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="B8" s="104" t="s">
-        <v>1835</v>
+      <c r="B8" s="102" t="s">
+        <v>1836</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>599</v>
@@ -22502,11 +22443,11 @@
       <c r="A9" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="B9" s="104" t="s">
-        <v>1835</v>
+      <c r="B9" s="102" t="s">
+        <v>1836</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="P9" s="31"/>
     </row>
@@ -22514,11 +22455,11 @@
       <c r="A10" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="B10" s="104" t="s">
-        <v>1835</v>
+      <c r="B10" s="102" t="s">
+        <v>1836</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="P10" s="31"/>
     </row>
@@ -22526,11 +22467,11 @@
       <c r="A11" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="B11" s="104" t="s">
-        <v>1835</v>
+      <c r="B11" s="102" t="s">
+        <v>1836</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="P11" s="31"/>
     </row>
@@ -22542,23 +22483,23 @@
         <v>1053</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>1055</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
       <c r="N12" s="30" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="O12" s="31"/>
       <c r="P12" s="31"/>
@@ -22579,26 +22520,26 @@
         <v>804</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>1065</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="N13" s="105" t="s">
-        <v>1847</v>
+      <c r="N13" s="34" t="s">
+        <v>1845</v>
       </c>
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
@@ -22624,23 +22565,23 @@
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="31" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="N14" s="105" t="s">
-        <v>1847</v>
+      <c r="N14" s="34" t="s">
+        <v>1845</v>
       </c>
       <c r="P14" s="40" t="s">
         <v>1034</v>
       </c>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
       <c r="T14" s="40" t="s">
         <v>951</v>
       </c>
@@ -22778,17 +22719,17 @@
       <c r="V22" s="31"/>
       <c r="W22" s="31"/>
     </row>
-    <row r="23" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="106" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C23" s="107" t="s">
+    <row r="23" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="103" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C23" s="104" t="s">
         <v>1848</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="104" t="s">
         <v>1849</v>
       </c>
-      <c r="E23" s="107"/>
+      <c r="E23" s="104"/>
       <c r="J23" s="40" t="s">
         <v>1850</v>
       </c>
@@ -22797,7 +22738,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T23" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
@@ -22907,7 +22848,7 @@
     </row>
     <row r="32" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>1864</v>
@@ -22925,7 +22866,7 @@
         <f aca="false">CONCATENATE("SetCondition::",C25,"::",C26)</f>
         <v>SetCondition::EmCare.B23.DE04::EmCare.B23.DE05</v>
       </c>
-      <c r="Q32" s="108" t="s">
+      <c r="Q32" s="105" t="s">
         <v>940</v>
       </c>
       <c r="R32" s="40" t="s">
@@ -22935,55 +22876,55 @@
         <v>1868</v>
       </c>
       <c r="T32" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W32" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="109" t="s">
+    <row r="33" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="106" t="s">
         <v>1864</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="106" t="s">
         <v>1869</v>
       </c>
-      <c r="D33" s="109" t="s">
+      <c r="D33" s="106" t="s">
         <v>1870</v>
       </c>
-      <c r="J33" s="109" t="s">
+      <c r="J33" s="106" t="s">
         <v>1871</v>
       </c>
-      <c r="N33" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W33" s="109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="109" t="s">
+      <c r="N33" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W33" s="106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="106" t="s">
         <v>1864</v>
       </c>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="106" t="s">
         <v>1872</v>
       </c>
-      <c r="D34" s="109" t="s">
+      <c r="D34" s="106" t="s">
         <v>1873</v>
       </c>
-      <c r="J34" s="109" t="s">
+      <c r="J34" s="106" t="s">
         <v>1874</v>
       </c>
-      <c r="N34" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W34" s="109" t="s">
+      <c r="N34" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W34" s="106" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22995,7 +22936,7 @@
         <v>1875</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>1876</v>
@@ -23033,18 +22974,18 @@
     </row>
     <row r="38" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="E38" s="40" t="s">
         <v>1879</v>
       </c>
-      <c r="H38" s="106"/>
+      <c r="H38" s="103"/>
       <c r="J38" s="40" t="s">
         <v>1880</v>
       </c>
@@ -23053,61 +22994,61 @@
         <v>SetCondition::EmCare.B23.DE05::EmCare.B23.DE08</v>
       </c>
       <c r="T38" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W38" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="109" t="s">
+    <row r="39" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B39" s="109" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C39" s="109" t="s">
+      <c r="B39" s="106" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C39" s="106" t="s">
         <v>1872</v>
       </c>
-      <c r="D39" s="109" t="s">
+      <c r="D39" s="106" t="s">
         <v>1873</v>
       </c>
-      <c r="E39" s="109" t="s">
+      <c r="E39" s="106" t="s">
         <v>1881</v>
       </c>
-      <c r="J39" s="109" t="s">
+      <c r="J39" s="106" t="s">
         <v>1874</v>
       </c>
-      <c r="N39" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W39" s="109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="109" t="s">
+      <c r="N39" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W39" s="106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B40" s="109" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C40" s="109" t="s">
+      <c r="B40" s="106" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C40" s="106" t="s">
         <v>1882</v>
       </c>
-      <c r="D40" s="109" t="s">
+      <c r="D40" s="106" t="s">
         <v>1883</v>
       </c>
-      <c r="E40" s="109" t="s">
+      <c r="E40" s="106" t="s">
         <v>1884</v>
       </c>
-      <c r="J40" s="109" t="s">
+      <c r="J40" s="106" t="s">
         <v>1885</v>
       </c>
-      <c r="N40" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W40" s="109" t="s">
+      <c r="N40" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W40" s="106" t="s">
         <v>7</v>
       </c>
     </row>
@@ -23130,7 +23071,7 @@
     </row>
     <row r="42" s="40" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>1889</v>
@@ -23149,61 +23090,61 @@
         <v>SetCondition::EmCare.B23.DE05::EmCare.B23.DE08</v>
       </c>
       <c r="T42" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W42" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="109" t="s">
+    <row r="43" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="106" t="s">
         <v>1889</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="106" t="s">
         <v>1872</v>
       </c>
-      <c r="D43" s="109" t="s">
+      <c r="D43" s="106" t="s">
         <v>1873</v>
       </c>
-      <c r="E43" s="109" t="s">
+      <c r="E43" s="106" t="s">
         <v>1892</v>
       </c>
-      <c r="J43" s="109" t="s">
+      <c r="J43" s="106" t="s">
         <v>1874</v>
       </c>
-      <c r="N43" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W43" s="109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="109" t="s">
+      <c r="N43" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W43" s="106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="106" t="s">
         <v>1889</v>
       </c>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="106" t="s">
         <v>1882</v>
       </c>
-      <c r="D44" s="109" t="s">
+      <c r="D44" s="106" t="s">
         <v>1883</v>
       </c>
-      <c r="E44" s="109" t="s">
+      <c r="E44" s="106" t="s">
         <v>1893</v>
       </c>
-      <c r="J44" s="109" t="s">
+      <c r="J44" s="106" t="s">
         <v>1885</v>
       </c>
-      <c r="N44" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W44" s="109" t="s">
+      <c r="N44" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W44" s="106" t="s">
         <v>7</v>
       </c>
     </row>
@@ -23218,7 +23159,7 @@
         <v>616</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="N46" s="30" t="s">
         <v>860</v>
@@ -23226,10 +23167,10 @@
     </row>
     <row r="47" s="40" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D47" s="40" t="s">
         <v>616</v>
@@ -23241,11 +23182,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="106"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
       <c r="T47" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W47" s="40" t="s">
         <v>7</v>
@@ -23262,7 +23203,7 @@
         <v>633</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="N48" s="30" t="s">
         <v>860</v>
@@ -23270,10 +23211,10 @@
     </row>
     <row r="49" s="40" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>633</v>
@@ -23285,11 +23226,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="106"/>
-      <c r="S49" s="106"/>
+      <c r="Q49" s="103"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="103"/>
       <c r="T49" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W49" s="40" t="s">
         <v>7</v>
@@ -23303,7 +23244,7 @@
         <v>1896</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H50" s="34" t="s">
         <v>1897</v>
@@ -23315,13 +23256,13 @@
     </row>
     <row r="51" s="40" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="J51" s="40" t="s">
         <v>1898</v>
@@ -23330,11 +23271,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q51" s="106"/>
-      <c r="R51" s="106"/>
-      <c r="S51" s="106"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="103"/>
       <c r="T51" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W51" s="40" t="s">
         <v>7</v>
@@ -23360,7 +23301,7 @@
     </row>
     <row r="53" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>1902</v>
@@ -23378,11 +23319,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q53" s="106"/>
-      <c r="R53" s="106"/>
-      <c r="S53" s="106"/>
+      <c r="Q53" s="103"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="103"/>
       <c r="T53" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W53" s="40" t="s">
         <v>7</v>
@@ -23408,7 +23349,7 @@
     </row>
     <row r="55" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>1908</v>
@@ -23426,11 +23367,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106"/>
-      <c r="S55" s="106"/>
+      <c r="Q55" s="103"/>
+      <c r="R55" s="103"/>
+      <c r="S55" s="103"/>
       <c r="T55" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W55" s="40" t="s">
         <v>7</v>
@@ -23455,7 +23396,7 @@
     </row>
     <row r="58" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>1914</v>
@@ -23473,11 +23414,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q58" s="106"/>
-      <c r="R58" s="106"/>
-      <c r="S58" s="106"/>
+      <c r="Q58" s="103"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="103"/>
       <c r="T58" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W58" s="40" t="s">
         <v>7</v>
@@ -23502,7 +23443,7 @@
     </row>
     <row r="60" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>1920</v>
@@ -23520,11 +23461,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q60" s="106"/>
-      <c r="R60" s="106"/>
-      <c r="S60" s="106"/>
+      <c r="Q60" s="103"/>
+      <c r="R60" s="103"/>
+      <c r="S60" s="103"/>
       <c r="T60" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W60" s="40" t="s">
         <v>7</v>
@@ -23549,7 +23490,7 @@
     </row>
     <row r="62" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>1926</v>
@@ -23564,11 +23505,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q62" s="106"/>
-      <c r="R62" s="106"/>
-      <c r="S62" s="106"/>
+      <c r="Q62" s="103"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="103"/>
       <c r="T62" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W62" s="40" t="s">
         <v>7</v>
@@ -23593,7 +23534,7 @@
     </row>
     <row r="64" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C64" s="40" t="s">
         <v>1931</v>
@@ -23608,11 +23549,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q64" s="106"/>
-      <c r="R64" s="106"/>
-      <c r="S64" s="106"/>
+      <c r="Q64" s="103"/>
+      <c r="R64" s="103"/>
+      <c r="S64" s="103"/>
       <c r="T64" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W64" s="40" t="s">
         <v>7</v>
@@ -23637,7 +23578,7 @@
     </row>
     <row r="66" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>1936</v>
@@ -23652,11 +23593,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q66" s="106"/>
-      <c r="R66" s="106"/>
-      <c r="S66" s="106"/>
+      <c r="Q66" s="103"/>
+      <c r="R66" s="103"/>
+      <c r="S66" s="103"/>
       <c r="T66" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W66" s="40" t="s">
         <v>7</v>
@@ -23682,7 +23623,7 @@
     </row>
     <row r="68" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>1940</v>
@@ -23690,7 +23631,7 @@
       <c r="D68" s="40" t="s">
         <v>1941</v>
       </c>
-      <c r="H68" s="110"/>
+      <c r="H68" s="107"/>
       <c r="J68" s="40" t="s">
         <v>1942</v>
       </c>
@@ -23698,11 +23639,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q68" s="106"/>
-      <c r="R68" s="106"/>
-      <c r="S68" s="106"/>
+      <c r="Q68" s="103"/>
+      <c r="R68" s="103"/>
+      <c r="S68" s="103"/>
       <c r="T68" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W68" s="40" t="s">
         <v>7</v>
@@ -23728,7 +23669,7 @@
     </row>
     <row r="70" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>1945</v>
@@ -23743,11 +23684,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q70" s="106"/>
-      <c r="R70" s="106"/>
-      <c r="S70" s="106"/>
+      <c r="Q70" s="103"/>
+      <c r="R70" s="103"/>
+      <c r="S70" s="103"/>
       <c r="T70" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W70" s="40" t="s">
         <v>7</v>
@@ -23815,7 +23756,7 @@
     </row>
     <row r="75" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>1956</v>
@@ -23830,11 +23771,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q75" s="106"/>
-      <c r="R75" s="106"/>
-      <c r="S75" s="106"/>
+      <c r="Q75" s="103"/>
+      <c r="R75" s="103"/>
+      <c r="S75" s="103"/>
       <c r="T75" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W75" s="40" t="s">
         <v>7</v>
@@ -23903,7 +23844,7 @@
     </row>
     <row r="80" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>1967</v>
@@ -23919,32 +23860,32 @@
         <v>SetCondition::EmCare.B23.DE32a_l</v>
       </c>
       <c r="T80" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W80" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="109" t="s">
+    <row r="81" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B81" s="109" t="s">
+      <c r="B81" s="106" t="s">
         <v>1967</v>
       </c>
-      <c r="C81" s="109" t="s">
+      <c r="C81" s="106" t="s">
         <v>1970</v>
       </c>
-      <c r="D81" s="109" t="s">
+      <c r="D81" s="106" t="s">
         <v>1971</v>
       </c>
-      <c r="J81" s="109" t="s">
+      <c r="J81" s="106" t="s">
         <v>1972</v>
       </c>
-      <c r="N81" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W81" s="111" t="s">
+      <c r="N81" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W81" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -23968,7 +23909,7 @@
     </row>
     <row r="83" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C83" s="40" t="s">
         <v>1975</v>
@@ -23983,11 +23924,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q83" s="106"/>
-      <c r="R83" s="106"/>
-      <c r="S83" s="106"/>
+      <c r="Q83" s="103"/>
+      <c r="R83" s="103"/>
+      <c r="S83" s="103"/>
       <c r="T83" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W83" s="40" t="s">
         <v>7</v>
@@ -24013,7 +23954,7 @@
     </row>
     <row r="85" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C85" s="40" t="s">
         <v>1980</v>
@@ -24028,11 +23969,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q85" s="106"/>
-      <c r="R85" s="106"/>
-      <c r="S85" s="106"/>
+      <c r="Q85" s="103"/>
+      <c r="R85" s="103"/>
+      <c r="S85" s="103"/>
       <c r="T85" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W85" s="40" t="s">
         <v>7</v>
@@ -24076,7 +24017,7 @@
     </row>
     <row r="88" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C88" s="40" t="s">
         <v>1987</v>
@@ -24092,32 +24033,32 @@
         <v>SetCondition::EmCare.B23.DE26a_l</v>
       </c>
       <c r="T88" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W88" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="109" t="s">
+    <row r="89" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B89" s="109" t="s">
+      <c r="B89" s="106" t="s">
         <v>1987</v>
       </c>
-      <c r="C89" s="109" t="s">
+      <c r="C89" s="106" t="s">
         <v>1990</v>
       </c>
-      <c r="D89" s="109" t="s">
+      <c r="D89" s="106" t="s">
         <v>1991</v>
       </c>
-      <c r="J89" s="109" t="s">
+      <c r="J89" s="106" t="s">
         <v>1992</v>
       </c>
-      <c r="N89" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W89" s="111" t="s">
+      <c r="N89" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W89" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24141,7 +24082,7 @@
     </row>
     <row r="91" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C91" s="40" t="s">
         <v>1995</v>
@@ -24156,11 +24097,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q91" s="106"/>
-      <c r="R91" s="106"/>
-      <c r="S91" s="106"/>
+      <c r="Q91" s="103"/>
+      <c r="R91" s="103"/>
+      <c r="S91" s="103"/>
       <c r="T91" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W91" s="40" t="s">
         <v>7</v>
@@ -24270,7 +24211,7 @@
     </row>
     <row r="99" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C99" s="40" t="s">
         <v>2012</v>
@@ -24285,11 +24226,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q99" s="106"/>
-      <c r="R99" s="106"/>
-      <c r="S99" s="106"/>
+      <c r="Q99" s="103"/>
+      <c r="R99" s="103"/>
+      <c r="S99" s="103"/>
       <c r="T99" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W99" s="40" t="s">
         <v>7</v>
@@ -24376,7 +24317,7 @@
     </row>
     <row r="105" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C105" s="40" t="s">
         <v>2024</v>
@@ -24391,11 +24332,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q105" s="106"/>
-      <c r="R105" s="106"/>
-      <c r="S105" s="106"/>
+      <c r="Q105" s="103"/>
+      <c r="R105" s="103"/>
+      <c r="S105" s="103"/>
       <c r="T105" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W105" s="40" t="s">
         <v>7</v>
@@ -24421,7 +24362,7 @@
     </row>
     <row r="107" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C107" s="40" t="s">
         <v>2029</v>
@@ -24436,11 +24377,11 @@
         <f aca="false">CONCATENATE("SetCondition")</f>
         <v>SetCondition</v>
       </c>
-      <c r="Q107" s="106"/>
-      <c r="R107" s="106"/>
-      <c r="S107" s="106"/>
+      <c r="Q107" s="103"/>
+      <c r="R107" s="103"/>
+      <c r="S107" s="103"/>
       <c r="T107" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W107" s="40" t="s">
         <v>7</v>
@@ -24465,17 +24406,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="109" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C109" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C109" s="103" t="s">
         <v>2034</v>
       </c>
       <c r="D109" s="40" t="s">
         <v>2035</v>
       </c>
-      <c r="J109" s="106" t="s">
+      <c r="J109" s="103" t="s">
         <v>2036</v>
       </c>
       <c r="P109" s="40" t="str">
@@ -24483,7 +24424,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T109" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W109" s="40" t="s">
         <v>7</v>
@@ -24507,17 +24448,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="111" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C111" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C111" s="103" t="s">
         <v>2039</v>
       </c>
       <c r="D111" s="40" t="s">
         <v>2040</v>
       </c>
-      <c r="J111" s="106" t="s">
+      <c r="J111" s="103" t="s">
         <v>2041</v>
       </c>
       <c r="P111" s="40" t="str">
@@ -24525,7 +24466,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T111" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W111" s="40" t="s">
         <v>7</v>
@@ -24549,17 +24490,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="113" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C113" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C113" s="103" t="s">
         <v>2044</v>
       </c>
       <c r="D113" s="40" t="s">
         <v>2045</v>
       </c>
-      <c r="J113" s="106" t="s">
+      <c r="J113" s="103" t="s">
         <v>2046</v>
       </c>
       <c r="P113" s="40" t="str">
@@ -24567,7 +24508,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T113" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W113" s="40" t="s">
         <v>7</v>
@@ -24591,17 +24532,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="115" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C115" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C115" s="103" t="s">
         <v>2049</v>
       </c>
       <c r="D115" s="40" t="s">
         <v>2050</v>
       </c>
-      <c r="J115" s="106" t="s">
+      <c r="J115" s="103" t="s">
         <v>2051</v>
       </c>
       <c r="P115" s="40" t="str">
@@ -24609,7 +24550,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T115" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W115" s="40" t="s">
         <v>7</v>
@@ -24626,24 +24567,24 @@
         <f aca="false">D117</f>
         <v>Clouding of the Cornea</v>
       </c>
-      <c r="H116" s="112" t="s">
+      <c r="H116" s="109" t="s">
         <v>2053</v>
       </c>
       <c r="N116" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="117" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C117" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C117" s="103" t="s">
         <v>2054</v>
       </c>
       <c r="D117" s="40" t="s">
         <v>1449</v>
       </c>
-      <c r="J117" s="106" t="s">
+      <c r="J117" s="103" t="s">
         <v>2055</v>
       </c>
       <c r="P117" s="40" t="str">
@@ -24651,7 +24592,7 @@
         <v>SetCondition::EmCare.B23.DE36</v>
       </c>
       <c r="T117" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W117" s="40" t="s">
         <v>7</v>
@@ -24668,7 +24609,7 @@
         <f aca="false">D121</f>
         <v>New or not previously treated</v>
       </c>
-      <c r="H118" s="112" t="s">
+      <c r="H118" s="109" t="s">
         <v>596</v>
       </c>
       <c r="N118" s="30" t="s">
@@ -24703,26 +24644,26 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="121" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="109" t="s">
+    <row r="121" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B121" s="109" t="s">
+      <c r="B121" s="106" t="s">
         <v>2054</v>
       </c>
-      <c r="C121" s="109" t="s">
+      <c r="C121" s="106" t="s">
         <v>2061</v>
       </c>
-      <c r="D121" s="109" t="s">
+      <c r="D121" s="106" t="s">
         <v>2062</v>
       </c>
-      <c r="J121" s="109" t="s">
+      <c r="J121" s="106" t="s">
         <v>2063</v>
       </c>
-      <c r="N121" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W121" s="111" t="s">
+      <c r="N121" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W121" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24745,17 +24686,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="123" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C123" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C123" s="103" t="s">
         <v>2066</v>
       </c>
       <c r="D123" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="J123" s="106" t="s">
+      <c r="J123" s="103" t="s">
         <v>2067</v>
       </c>
       <c r="P123" s="40" t="str">
@@ -24763,7 +24704,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T123" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W123" s="40" t="s">
         <v>7</v>
@@ -24787,17 +24728,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="125" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C125" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C125" s="103" t="s">
         <v>2070</v>
       </c>
       <c r="D125" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="J125" s="106" t="s">
+      <c r="J125" s="103" t="s">
         <v>2071</v>
       </c>
       <c r="P125" s="40" t="str">
@@ -24805,7 +24746,7 @@
         <v>SetCondition::EmCare.B23.DE43a</v>
       </c>
       <c r="T125" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W125" s="40" t="s">
         <v>7</v>
@@ -24830,27 +24771,27 @@
         <v>860</v>
       </c>
     </row>
-    <row r="127" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="109" t="s">
+    <row r="127" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B127" s="109" t="s">
+      <c r="B127" s="106" t="s">
         <v>2070</v>
       </c>
-      <c r="C127" s="109" t="s">
+      <c r="C127" s="106" t="s">
         <v>2074</v>
       </c>
-      <c r="D127" s="109" t="s">
+      <c r="D127" s="106" t="s">
         <v>1483</v>
       </c>
-      <c r="E127" s="113"/>
-      <c r="J127" s="109" t="s">
+      <c r="E127" s="110"/>
+      <c r="J127" s="106" t="s">
         <v>2075</v>
       </c>
-      <c r="N127" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W127" s="111" t="s">
+      <c r="N127" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W127" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24872,18 +24813,18 @@
         <v>860</v>
       </c>
     </row>
-    <row r="129" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C129" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C129" s="103" t="s">
         <v>2078</v>
       </c>
       <c r="D129" s="40" t="s">
         <v>189</v>
       </c>
       <c r="I129" s="40"/>
-      <c r="J129" s="106" t="s">
+      <c r="J129" s="103" t="s">
         <v>2079</v>
       </c>
       <c r="P129" s="40" t="str">
@@ -24891,7 +24832,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T129" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W129" s="40" t="s">
         <v>7</v>
@@ -24917,7 +24858,7 @@
     </row>
     <row r="131" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="40" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C131" s="40" t="s">
         <v>2082</v>
@@ -24933,7 +24874,7 @@
         <v>SetCondition::EmCare.B23.DE46A::EmCare.B23.DE46</v>
       </c>
       <c r="T131" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W131" s="40" t="s">
         <v>7</v>
@@ -24954,26 +24895,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="133" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="109" t="s">
+    <row r="133" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B133" s="109" t="s">
+      <c r="B133" s="106" t="s">
         <v>2082</v>
       </c>
-      <c r="C133" s="109" t="s">
+      <c r="C133" s="106" t="s">
         <v>2086</v>
       </c>
-      <c r="D133" s="109" t="s">
+      <c r="D133" s="106" t="s">
         <v>2087</v>
       </c>
-      <c r="J133" s="109" t="s">
+      <c r="J133" s="106" t="s">
         <v>2088</v>
       </c>
-      <c r="N133" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W133" s="111" t="s">
+      <c r="N133" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W133" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24984,33 +24925,33 @@
       <c r="C134" s="34" t="s">
         <v>2089</v>
       </c>
-      <c r="H134" s="112" t="s">
+      <c r="H134" s="109" t="s">
         <v>2090</v>
       </c>
       <c r="N134" s="30" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="135" s="109" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="109" t="s">
+    <row r="135" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="B135" s="109" t="s">
+      <c r="B135" s="106" t="s">
         <v>2082</v>
       </c>
-      <c r="C135" s="109" t="s">
+      <c r="C135" s="106" t="s">
         <v>2091</v>
       </c>
-      <c r="D135" s="109" t="s">
+      <c r="D135" s="106" t="s">
         <v>2092</v>
       </c>
-      <c r="J135" s="114" t="s">
+      <c r="J135" s="111" t="s">
         <v>2093</v>
       </c>
-      <c r="N135" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W135" s="111" t="s">
+      <c r="N135" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W135" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25033,11 +24974,11 @@
         <v>860</v>
       </c>
     </row>
-    <row r="137" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C137" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C137" s="103" t="s">
         <v>2096</v>
       </c>
       <c r="D137" s="40" t="s">
@@ -25051,7 +24992,7 @@
         <v>SetCondition::EmCare.B23.DE48::EmCare.B23.DE48a</v>
       </c>
       <c r="T137" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W137" s="40" t="s">
         <v>7</v>
@@ -25072,23 +25013,23 @@
         <v>860</v>
       </c>
     </row>
-    <row r="139" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="109" t="s">
+    <row r="139" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="C139" s="111" t="s">
+      <c r="C139" s="108" t="s">
         <v>2100</v>
       </c>
-      <c r="D139" s="111" t="s">
+      <c r="D139" s="108" t="s">
         <v>2101</v>
       </c>
-      <c r="J139" s="111" t="s">
+      <c r="J139" s="108" t="s">
         <v>2102</v>
       </c>
-      <c r="N139" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W139" s="111" t="s">
+      <c r="N139" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W139" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25106,23 +25047,23 @@
         <v>860</v>
       </c>
     </row>
-    <row r="141" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="109" t="s">
+    <row r="141" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="106" t="s">
         <v>1075</v>
       </c>
-      <c r="C141" s="111" t="s">
+      <c r="C141" s="108" t="s">
         <v>2022</v>
       </c>
-      <c r="D141" s="111" t="s">
+      <c r="D141" s="108" t="s">
         <v>2105</v>
       </c>
-      <c r="J141" s="115" t="s">
+      <c r="J141" s="112" t="s">
         <v>2106</v>
       </c>
-      <c r="N141" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W141" s="111" t="s">
+      <c r="N141" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W141" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25144,17 +25085,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="143" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C143" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C143" s="103" t="s">
         <v>2109</v>
       </c>
       <c r="D143" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="J143" s="106" t="s">
+      <c r="J143" s="103" t="s">
         <v>2110</v>
       </c>
       <c r="P143" s="40" t="str">
@@ -25162,7 +25103,7 @@
         <v>SetCondition::EmCare.B23.DE50::EmCare.B23.DE50a</v>
       </c>
       <c r="T143" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W143" s="40" t="s">
         <v>7</v>
@@ -25182,26 +25123,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="145" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="115" t="s">
+    <row r="145" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="112" t="s">
         <v>1075</v>
       </c>
-      <c r="B145" s="115" t="s">
+      <c r="B145" s="112" t="s">
         <v>2109</v>
       </c>
-      <c r="C145" s="111" t="s">
+      <c r="C145" s="108" t="s">
         <v>2113</v>
       </c>
-      <c r="D145" s="111" t="s">
+      <c r="D145" s="108" t="s">
         <v>2114</v>
       </c>
-      <c r="J145" s="115" t="s">
+      <c r="J145" s="112" t="s">
         <v>2115</v>
       </c>
-      <c r="N145" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W145" s="111" t="s">
+      <c r="N145" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W145" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25219,26 +25160,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="147" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="111" t="s">
+    <row r="147" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="108" t="s">
         <v>1075</v>
       </c>
-      <c r="B147" s="115" t="s">
+      <c r="B147" s="112" t="s">
         <v>2109</v>
       </c>
-      <c r="C147" s="111" t="s">
+      <c r="C147" s="108" t="s">
         <v>2118</v>
       </c>
-      <c r="D147" s="111" t="s">
+      <c r="D147" s="108" t="s">
         <v>2119</v>
       </c>
-      <c r="J147" s="115" t="s">
+      <c r="J147" s="112" t="s">
         <v>2120</v>
       </c>
-      <c r="N147" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W147" s="111" t="s">
+      <c r="N147" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W147" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25260,17 +25201,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="149" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C149" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C149" s="103" t="s">
         <v>2123</v>
       </c>
-      <c r="D149" s="106" t="s">
+      <c r="D149" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="J149" s="106" t="s">
+      <c r="J149" s="103" t="s">
         <v>2124</v>
       </c>
       <c r="P149" s="40" t="str">
@@ -25278,7 +25219,7 @@
         <v>SetCondition::EmCare.B23.DE52a</v>
       </c>
       <c r="T149" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W149" s="40" t="s">
         <v>7</v>
@@ -25298,26 +25239,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="151" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="115" t="s">
+    <row r="151" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="112" t="s">
         <v>1075</v>
       </c>
-      <c r="B151" s="115" t="s">
+      <c r="B151" s="112" t="s">
         <v>2123</v>
       </c>
-      <c r="C151" s="111" t="s">
+      <c r="C151" s="108" t="s">
         <v>2127</v>
       </c>
-      <c r="D151" s="111" t="s">
+      <c r="D151" s="108" t="s">
         <v>2128</v>
       </c>
-      <c r="J151" s="115" t="s">
+      <c r="J151" s="112" t="s">
         <v>2129</v>
       </c>
-      <c r="N151" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W151" s="111" t="s">
+      <c r="N151" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W151" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25339,17 +25280,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="153" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C153" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C153" s="103" t="s">
         <v>2132</v>
       </c>
       <c r="D153" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="J153" s="106" t="s">
+      <c r="J153" s="103" t="s">
         <v>2133</v>
       </c>
       <c r="P153" s="40" t="str">
@@ -25357,7 +25298,7 @@
         <v>SetCondition::EmCare.B23.DE53a</v>
       </c>
       <c r="T153" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W153" s="40" t="s">
         <v>7</v>
@@ -25377,26 +25318,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="155" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="115" t="s">
+    <row r="155" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="112" t="s">
         <v>1075</v>
       </c>
-      <c r="B155" s="115" t="s">
+      <c r="B155" s="112" t="s">
         <v>2132</v>
       </c>
-      <c r="C155" s="111" t="s">
+      <c r="C155" s="108" t="s">
         <v>2136</v>
       </c>
-      <c r="D155" s="111" t="s">
+      <c r="D155" s="108" t="s">
         <v>1517</v>
       </c>
-      <c r="J155" s="115" t="s">
+      <c r="J155" s="112" t="s">
         <v>2137</v>
       </c>
-      <c r="N155" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W155" s="111" t="s">
+      <c r="N155" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W155" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25418,17 +25359,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="157" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C157" s="116" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C157" s="113" t="s">
         <v>2140</v>
       </c>
       <c r="D157" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="J157" s="106" t="s">
+      <c r="J157" s="103" t="s">
         <v>2141</v>
       </c>
       <c r="P157" s="40" t="str">
@@ -25436,7 +25377,7 @@
         <v>SetCondition::EmCare.B23.DE55</v>
       </c>
       <c r="T157" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W157" s="40" t="s">
         <v>7</v>
@@ -25456,26 +25397,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="159" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="115" t="s">
+    <row r="159" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="112" t="s">
         <v>1075</v>
       </c>
-      <c r="B159" s="115" t="s">
+      <c r="B159" s="112" t="s">
         <v>2140</v>
       </c>
-      <c r="C159" s="111" t="s">
+      <c r="C159" s="108" t="s">
         <v>2144</v>
       </c>
-      <c r="D159" s="111" t="s">
+      <c r="D159" s="108" t="s">
         <v>1521</v>
       </c>
-      <c r="J159" s="115" t="s">
+      <c r="J159" s="112" t="s">
         <v>2145</v>
       </c>
-      <c r="N159" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W159" s="111" t="s">
+      <c r="N159" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W159" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25493,17 +25434,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="161" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C161" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C161" s="103" t="s">
         <v>2148</v>
       </c>
       <c r="D161" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="J161" s="106" t="s">
+      <c r="J161" s="103" t="s">
         <v>2149</v>
       </c>
       <c r="P161" s="40" t="str">
@@ -25511,7 +25452,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T161" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W161" s="40" t="s">
         <v>7</v>
@@ -25531,17 +25472,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="163" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C163" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C163" s="103" t="s">
         <v>2152</v>
       </c>
       <c r="D163" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="J163" s="106" t="s">
+      <c r="J163" s="103" t="s">
         <v>2153</v>
       </c>
       <c r="P163" s="40" t="str">
@@ -25549,7 +25490,7 @@
         <v>SetCondition::EmCare.B23.DE57a::EmCare.B23.DE57b::EmCare.B23.DE57c</v>
       </c>
       <c r="T163" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W163" s="40" t="s">
         <v>7</v>
@@ -25569,26 +25510,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="165" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="115" t="s">
+    <row r="165" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="112" t="s">
         <v>1075</v>
       </c>
-      <c r="B165" s="115" t="s">
+      <c r="B165" s="112" t="s">
         <v>2152</v>
       </c>
-      <c r="C165" s="111" t="s">
+      <c r="C165" s="108" t="s">
         <v>2156</v>
       </c>
-      <c r="D165" s="111" t="s">
+      <c r="D165" s="108" t="s">
         <v>1529</v>
       </c>
-      <c r="J165" s="115" t="s">
+      <c r="J165" s="112" t="s">
         <v>2157</v>
       </c>
-      <c r="N165" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W165" s="111" t="s">
+      <c r="N165" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W165" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25606,26 +25547,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="167" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="115" t="s">
+    <row r="167" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="112" t="s">
         <v>1075</v>
       </c>
-      <c r="B167" s="115" t="s">
+      <c r="B167" s="112" t="s">
         <v>2152</v>
       </c>
-      <c r="C167" s="111" t="s">
+      <c r="C167" s="108" t="s">
         <v>2160</v>
       </c>
-      <c r="D167" s="111" t="s">
+      <c r="D167" s="108" t="s">
         <v>1525</v>
       </c>
-      <c r="J167" s="115" t="s">
+      <c r="J167" s="112" t="s">
         <v>2161</v>
       </c>
-      <c r="N167" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W167" s="111" t="s">
+      <c r="N167" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W167" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25643,26 +25584,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="169" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="115" t="s">
+    <row r="169" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="112" t="s">
         <v>1075</v>
       </c>
-      <c r="B169" s="115" t="s">
+      <c r="B169" s="112" t="s">
         <v>2152</v>
       </c>
-      <c r="C169" s="111" t="s">
+      <c r="C169" s="108" t="s">
         <v>624</v>
       </c>
-      <c r="D169" s="111" t="s">
+      <c r="D169" s="108" t="s">
         <v>2164</v>
       </c>
-      <c r="J169" s="115" t="s">
+      <c r="J169" s="112" t="s">
         <v>2165</v>
       </c>
-      <c r="N169" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W169" s="111" t="s">
+      <c r="N169" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W169" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25684,17 +25625,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="171" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C171" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C171" s="103" t="s">
         <v>2168</v>
       </c>
       <c r="D171" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J171" s="106" t="s">
+      <c r="J171" s="103" t="s">
         <v>2169</v>
       </c>
       <c r="P171" s="40" t="str">
@@ -25702,7 +25643,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T171" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W171" s="40" t="s">
         <v>7</v>
@@ -25726,17 +25667,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="173" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C173" s="116" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C173" s="113" t="s">
         <v>2172</v>
       </c>
       <c r="D173" s="40" t="s">
         <v>2173</v>
       </c>
-      <c r="J173" s="106" t="s">
+      <c r="J173" s="103" t="s">
         <v>2174</v>
       </c>
       <c r="P173" s="40" t="str">
@@ -25744,7 +25685,7 @@
         <v>SetCondition::EmCare.B23.DE60</v>
       </c>
       <c r="T173" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W173" s="40" t="s">
         <v>7</v>
@@ -25764,26 +25705,26 @@
         <v>860</v>
       </c>
     </row>
-    <row r="175" s="115" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="115" t="s">
+    <row r="175" s="112" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="112" t="s">
         <v>1075</v>
       </c>
-      <c r="B175" s="115" t="s">
+      <c r="B175" s="112" t="s">
         <v>2172</v>
       </c>
-      <c r="C175" s="111" t="s">
+      <c r="C175" s="108" t="s">
         <v>2177</v>
       </c>
-      <c r="D175" s="111" t="s">
+      <c r="D175" s="108" t="s">
         <v>2178</v>
       </c>
-      <c r="J175" s="115" t="s">
+      <c r="J175" s="112" t="s">
         <v>2179</v>
       </c>
-      <c r="N175" s="109" t="s">
-        <v>1819</v>
-      </c>
-      <c r="W175" s="111" t="s">
+      <c r="N175" s="106" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W175" s="108" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25805,17 +25746,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="177" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C177" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C177" s="103" t="s">
         <v>2182</v>
       </c>
       <c r="D177" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="J177" s="106" t="s">
+      <c r="J177" s="103" t="s">
         <v>2183</v>
       </c>
       <c r="P177" s="40" t="str">
@@ -25823,7 +25764,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T177" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W177" s="40" t="s">
         <v>7</v>
@@ -25847,17 +25788,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="179" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C179" s="106" t="s">
-        <v>1761</v>
+        <v>1740</v>
+      </c>
+      <c r="C179" s="103" t="s">
+        <v>1762</v>
       </c>
       <c r="D179" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="J179" s="106" t="s">
+      <c r="J179" s="103" t="s">
         <v>2186</v>
       </c>
       <c r="P179" s="40" t="str">
@@ -25865,7 +25806,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T179" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W179" s="40" t="s">
         <v>7</v>
@@ -25889,17 +25830,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="181" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C181" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C181" s="103" t="s">
         <v>2189</v>
       </c>
       <c r="D181" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="J181" s="106" t="s">
+      <c r="J181" s="103" t="s">
         <v>2190</v>
       </c>
       <c r="P181" s="40" t="str">
@@ -25907,7 +25848,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T181" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W181" s="40" t="s">
         <v>7</v>
@@ -25931,17 +25872,17 @@
         <v>860</v>
       </c>
     </row>
-    <row r="183" s="106" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C183" s="106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C183" s="103" t="s">
         <v>2193</v>
       </c>
       <c r="D183" s="40" t="s">
         <v>2194</v>
       </c>
-      <c r="J183" s="106" t="s">
+      <c r="J183" s="103" t="s">
         <v>2195</v>
       </c>
       <c r="P183" s="40" t="str">
@@ -25949,7 +25890,7 @@
         <v>SetCondition</v>
       </c>
       <c r="T183" s="40" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="W183" s="40" t="s">
         <v>7</v>
@@ -25957,22 +25898,22 @@
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="30" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="P184" s="30" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="T184" s="40" t="s">
-        <v>1743</v>
-      </c>
-      <c r="U184" s="106"/>
-      <c r="V184" s="106"/>
+        <v>1744</v>
+      </c>
+      <c r="U184" s="103"/>
+      <c r="V184" s="103"/>
       <c r="W184" s="40"/>
     </row>
   </sheetData>
@@ -26655,10 +26596,10 @@
       <c r="C41" s="34" t="s">
         <v>2288</v>
       </c>
-      <c r="D41" s="117" t="s">
+      <c r="D41" s="114" t="s">
         <v>2289</v>
       </c>
-      <c r="E41" s="90"/>
+      <c r="E41" s="88"/>
       <c r="J41" s="34" t="s">
         <v>2290</v>
       </c>
@@ -27205,7 +27146,7 @@
         <f aca="false">CONCATENATE("load-",C13)</f>
         <v>load-EmCare.C10.IT.DE03</v>
       </c>
-      <c r="H76" s="118" t="s">
+      <c r="H76" s="115" t="s">
         <v>2381</v>
       </c>
       <c r="N76" s="34" t="s">
@@ -27628,7 +27569,7 @@
       <c r="H104" s="34" t="s">
         <v>2409</v>
       </c>
-      <c r="J104" s="118"/>
+      <c r="J104" s="115"/>
       <c r="K104" s="34" t="str">
         <f aca="false">LOWER(J104)</f>
         <v/>
@@ -28090,11 +28031,11 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.41"/>
@@ -28103,7 +28044,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="59.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="119" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="116" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.75"/>
@@ -28138,357 +28079,357 @@
       <c r="H1" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="116" t="s">
         <v>570</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>2443</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="117" t="s">
         <v>2444</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="117" t="s">
         <v>2445</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118" t="s">
         <v>746</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="118" t="s">
         <v>746</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="118" t="s">
         <v>2446</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="123" t="s">
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="120" t="s">
         <v>2447</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
+      <c r="M2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="117" t="s">
         <v>2448</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="117" t="s">
         <v>2445</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="125" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="118" t="s">
         <v>951</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="118" t="s">
         <v>951</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="118" t="s">
         <v>2449</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="120"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="117" t="s">
         <v>2450</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="117" t="s">
         <v>2445</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E5" s="121" t="s">
-        <v>1743</v>
-      </c>
-      <c r="F5" s="121" t="s">
+      <c r="C5" s="118"/>
+      <c r="D5" s="118" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F5" s="118" t="s">
         <v>2451</v>
       </c>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="121" t="s">
         <v>2452</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="121" t="s">
         <v>2453</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="122" t="s">
         <v>2444</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="122" t="s">
         <v>2454</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="122" t="s">
         <v>751</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="122" t="s">
         <v>2455</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="122" t="s">
         <v>2456</v>
       </c>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="123" t="s">
         <v>576</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="129" t="s">
+      <c r="J7" s="122"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="124" t="s">
         <v>2457</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
+      <c r="M7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="121" t="s">
         <v>2458</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="121" t="s">
         <v>2453</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="122" t="s">
         <v>2444</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="122" t="s">
         <v>2459</v>
       </c>
-      <c r="E8" s="127" t="s">
+      <c r="E8" s="122" t="s">
         <v>2460</v>
       </c>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127" t="s">
+      <c r="F8" s="122"/>
+      <c r="G8" s="122" t="s">
         <v>2461</v>
       </c>
-      <c r="H8" s="127" t="s">
+      <c r="H8" s="122" t="s">
         <v>2456</v>
       </c>
-      <c r="I8" s="128" t="s">
+      <c r="I8" s="123" t="s">
         <v>940</v>
       </c>
-      <c r="J8" s="127" t="s">
+      <c r="J8" s="122" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="121" t="s">
         <v>2462</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="121" t="s">
         <v>2453</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="122" t="s">
         <v>2444</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="122" t="s">
         <v>2463</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="122" t="s">
         <v>2463</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127" t="s">
+      <c r="F9" s="122"/>
+      <c r="G9" s="122" t="s">
         <v>2464</v>
       </c>
-      <c r="H9" s="127" t="s">
+      <c r="H9" s="122" t="s">
         <v>2456</v>
       </c>
-      <c r="I9" s="128" t="s">
+      <c r="I9" s="123" t="s">
         <v>2465</v>
       </c>
-      <c r="J9" s="127" t="s">
+      <c r="J9" s="122" t="s">
         <v>2466</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="121" t="s">
         <v>2467</v>
       </c>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="121" t="s">
         <v>2453</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="122" t="s">
         <v>2444</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="122" t="s">
         <v>2468</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="122" t="s">
         <v>2469</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127" t="s">
+      <c r="F10" s="122"/>
+      <c r="G10" s="122" t="s">
         <v>2455</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="122" t="s">
         <v>2456</v>
       </c>
-      <c r="I10" s="128" t="s">
+      <c r="I10" s="123" t="s">
         <v>940</v>
       </c>
-      <c r="J10" s="127" t="s">
+      <c r="J10" s="122" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="121" t="s">
         <v>2470</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="121" t="s">
         <v>2453</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="122" t="s">
         <v>2444</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="122" t="s">
         <v>2471</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="122" t="s">
         <v>2472</v>
       </c>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127" t="s">
+      <c r="F11" s="122"/>
+      <c r="G11" s="122" t="s">
         <v>2455</v>
       </c>
-      <c r="H11" s="127" t="s">
+      <c r="H11" s="122" t="s">
         <v>2456</v>
       </c>
-      <c r="I11" s="128" t="s">
+      <c r="I11" s="123" t="s">
         <v>940</v>
       </c>
-      <c r="J11" s="127" t="s">
+      <c r="J11" s="122" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="121" t="s">
         <v>2473</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="121" t="s">
         <v>2453</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="122" t="s">
         <v>2444</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="122" t="s">
         <v>2474</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="122" t="s">
         <v>2474</v>
       </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127" t="s">
+      <c r="F12" s="122"/>
+      <c r="G12" s="122" t="s">
         <v>2461</v>
       </c>
-      <c r="H12" s="127" t="s">
+      <c r="H12" s="122" t="s">
         <v>2475</v>
       </c>
-      <c r="I12" s="128" t="s">
+      <c r="I12" s="123" t="s">
         <v>576</v>
       </c>
-      <c r="J12" s="127"/>
+      <c r="J12" s="122"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>2476</v>
       </c>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="121" t="s">
         <v>2453</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="122" t="s">
         <v>2444</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="122" t="s">
         <v>2477</v>
       </c>
-      <c r="E13" s="127" t="s">
+      <c r="E13" s="122" t="s">
         <v>2478</v>
       </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127" t="s">
+      <c r="F13" s="122"/>
+      <c r="G13" s="122" t="s">
         <v>2455</v>
       </c>
-      <c r="H13" s="127" t="s">
+      <c r="H13" s="122" t="s">
         <v>2456</v>
       </c>
-      <c r="I13" s="128" t="s">
+      <c r="I13" s="123" t="s">
         <v>2479</v>
       </c>
-      <c r="J13" s="127"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>2480</v>
       </c>
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="121" t="s">
         <v>2453</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -28506,24 +28447,24 @@
       <c r="H14" s="28" t="s">
         <v>2484</v>
       </c>
-      <c r="I14" s="128" t="s">
+      <c r="I14" s="123" t="s">
         <v>940</v>
       </c>
-      <c r="J14" s="130" t="s">
+      <c r="J14" s="28" t="s">
         <v>2480</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="127"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="122"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -28548,7 +28489,7 @@
       <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.17"/>
@@ -29130,7 +29071,7 @@
       <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
@@ -31220,7 +31161,7 @@
       <c r="B53" s="42" t="s">
         <v>883</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="42" t="s">
         <v>900</v>
       </c>
       <c r="D53" s="42"/>
@@ -31380,7 +31321,7 @@
       <c r="E57" s="42" t="s">
         <v>910</v>
       </c>
-      <c r="F57" s="52" t="s">
+      <c r="F57" s="51" t="s">
         <v>911</v>
       </c>
       <c r="G57" s="42"/>
@@ -31439,7 +31380,7 @@
       <c r="E58" s="42" t="s">
         <v>910</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="51" t="s">
         <v>911</v>
       </c>
       <c r="G58" s="42"/>
@@ -31589,7 +31530,7 @@
       <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="29.75"/>
@@ -31636,52 +31577,52 @@
       <c r="L1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="52" t="s">
         <v>930</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>730</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="52" t="s">
         <v>731</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="52" t="s">
         <v>931</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="52" t="s">
         <v>732</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="52" t="s">
         <v>932</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="52" t="s">
         <v>733</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="52" t="s">
         <v>734</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="52" t="s">
         <v>735</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="52" t="s">
         <v>737</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="53" t="s">
+      <c r="Y1" s="52" t="s">
         <v>933</v>
       </c>
-      <c r="Z1" s="53" t="s">
+      <c r="Z1" s="52" t="s">
         <v>934</v>
       </c>
-      <c r="AA1" s="53" t="s">
+      <c r="AA1" s="52" t="s">
         <v>935</v>
       </c>
-      <c r="AB1" s="53" t="s">
+      <c r="AB1" s="52" t="s">
         <v>738</v>
       </c>
       <c r="AC1" s="42" t="s">
@@ -31747,7 +31688,7 @@
       <c r="AB3" s="31"/>
       <c r="AC3" s="31"/>
       <c r="AD3" s="31"/>
-      <c r="AE3" s="54"/>
+      <c r="AE3" s="53"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
@@ -31804,7 +31745,7 @@
       <c r="AB4" s="31"/>
       <c r="AC4" s="31"/>
       <c r="AD4" s="31"/>
-      <c r="AE4" s="54"/>
+      <c r="AE4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
@@ -31861,7 +31802,7 @@
       <c r="AB5" s="31"/>
       <c r="AC5" s="31"/>
       <c r="AD5" s="31"/>
-      <c r="AE5" s="54"/>
+      <c r="AE5" s="53"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42"/>
@@ -31894,7 +31835,7 @@
       <c r="AB6" s="31"/>
       <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
-      <c r="AE6" s="54"/>
+      <c r="AE6" s="53"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31"/>
@@ -31927,7 +31868,7 @@
       <c r="AB7" s="31"/>
       <c r="AC7" s="31"/>
       <c r="AD7" s="31"/>
-      <c r="AE7" s="54"/>
+      <c r="AE7" s="53"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31"/>
@@ -31960,10 +31901,10 @@
       <c r="AB8" s="31"/>
       <c r="AC8" s="31"/>
       <c r="AD8" s="31"/>
-      <c r="AE8" s="54"/>
+      <c r="AE8" s="53"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>748</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -32355,7 +32296,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.5"/>
@@ -32536,7 +32477,7 @@
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
       <c r="W4" s="31"/>
-      <c r="X4" s="56" t="s">
+      <c r="X4" s="55" t="s">
         <v>7</v>
       </c>
       <c r="Y4" s="31"/>
@@ -32565,7 +32506,7 @@
       <c r="U5" s="31"/>
       <c r="V5" s="31"/>
       <c r="W5" s="31"/>
-      <c r="X5" s="56"/>
+      <c r="X5" s="55"/>
       <c r="Y5" s="31"/>
       <c r="Z5" s="31"/>
       <c r="AA5" s="31"/>
@@ -32593,34 +32534,34 @@
       <c r="AB6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>576</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>977</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>978</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="57" t="s">
         <v>979</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>980</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59" t="n">
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59" t="s">
+      <c r="M7" s="58"/>
+      <c r="N7" s="58" t="s">
         <v>981</v>
       </c>
-      <c r="O7" s="59"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="31" t="s">
         <v>949</v>
       </c>
@@ -32635,20 +32576,20 @@
       </c>
       <c r="V7" s="42"/>
       <c r="W7" s="31"/>
-      <c r="X7" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
+      <c r="X7" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
         <v>982</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>983</v>
       </c>
       <c r="D8" s="31" t="s">
@@ -32668,7 +32609,7 @@
       <c r="L8" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="M8" s="59"/>
+      <c r="M8" s="58"/>
       <c r="N8" s="31" t="s">
         <v>986</v>
       </c>
@@ -32694,21 +32635,21 @@
       <c r="AB8" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>882</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="57" t="s">
         <v>989</v>
       </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="59"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
@@ -32726,7 +32667,7 @@
       <c r="AB10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>576</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -32741,19 +32682,19 @@
       <c r="E11" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="59" t="s">
         <v>993</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="57" t="s">
         <v>994</v>
       </c>
       <c r="L11" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="59"/>
+      <c r="M11" s="58"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="31" t="s">
@@ -32779,7 +32720,7 @@
       <c r="AB11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="378" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>576</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -32794,17 +32735,17 @@
       <c r="E12" s="0" t="s">
         <v>997</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>998</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="58"/>
+      <c r="J12" s="57"/>
       <c r="L12" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="59"/>
+      <c r="M12" s="58"/>
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
       <c r="P12" s="31" t="s">
@@ -32828,14 +32769,14 @@
       <c r="AB12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57"/>
+      <c r="A13" s="56"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="58"/>
+      <c r="J13" s="57"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="59"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
@@ -32853,7 +32794,7 @@
       <c r="AB13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="56" t="s">
         <v>576</v>
       </c>
       <c r="B14" s="28" t="s">
@@ -32868,19 +32809,19 @@
       <c r="E14" s="0" t="s">
         <v>1001</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="61" t="s">
         <v>1002</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="62" t="s">
         <v>1003</v>
       </c>
       <c r="L14" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="59"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
       <c r="P14" s="31" t="s">
@@ -32904,7 +32845,7 @@
       <c r="AB14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="56" t="s">
         <v>576</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -32919,19 +32860,19 @@
       <c r="E15" s="0" t="s">
         <v>1006</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="60" t="s">
         <v>1007</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="62" t="s">
         <v>1003</v>
       </c>
       <c r="L15" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="M15" s="59"/>
+      <c r="M15" s="58"/>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
       <c r="P15" s="31" t="s">
@@ -32955,7 +32896,7 @@
       <c r="AB15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>576</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -32970,17 +32911,17 @@
       <c r="E16" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>1011</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="58"/>
+      <c r="J16" s="57"/>
       <c r="L16" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="59"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="31" t="s">
@@ -33006,7 +32947,7 @@
       <c r="AB16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>576</v>
       </c>
       <c r="B17" s="28" t="s">
@@ -33027,11 +32968,11 @@
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="57"/>
       <c r="L17" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="59"/>
+      <c r="M17" s="58"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31" t="s">
@@ -33067,7 +33008,7 @@
       <c r="E18" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="F18" s="64"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
@@ -33093,19 +33034,19 @@
       <c r="AB18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
@@ -33115,10 +33056,10 @@
       <c r="V19" s="42"/>
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31"/>
@@ -33148,43 +33089,43 @@
       <c r="AB20" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="66"/>
+      <c r="B26" s="65"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="66"/>
+      <c r="B27" s="65"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="66"/>
+      <c r="B28" s="65"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="66"/>
+      <c r="B29" s="65"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="66"/>
+      <c r="B30" s="65"/>
       <c r="I30" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="31"/>
@@ -33207,13 +33148,13 @@
   </sheetPr>
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.92"/>
@@ -33258,7 +33199,7 @@
       <c r="K1" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="67" t="s">
         <v>1021</v>
       </c>
       <c r="M1" s="32" t="s">
@@ -33391,7 +33332,7 @@
       <c r="F4" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="63" t="s">
         <v>1030</v>
       </c>
       <c r="H4" s="31"/>
@@ -34938,35 +34879,35 @@
       <c r="A4" s="38" t="s">
         <v>576</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>978</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58" t="s">
         <v>1139</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="59" t="s">
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="58" t="s">
         <v>860</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
       <c r="T4" s="31"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
     </row>
     <row r="5" customFormat="false" ht="77.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
@@ -34987,13 +34928,13 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="68" t="s">
         <v>1141</v>
       </c>
       <c r="K5" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="59"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="31" t="s">
         <v>949</v>
       </c>
@@ -35105,31 +35046,31 @@
       <c r="W7" s="31"/>
       <c r="X7" s="31"/>
     </row>
-    <row r="8" s="72" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
+    <row r="8" s="71" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
@@ -35197,7 +35138,7 @@
       <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
@@ -35651,7 +35592,7 @@
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
-      <c r="L12" s="73" t="s">
+      <c r="L12" s="31" t="s">
         <v>860</v>
       </c>
       <c r="M12" s="31"/>
@@ -35672,75 +35613,75 @@
       <c r="A13" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="69" t="s">
         <v>1165</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="69" t="s">
         <v>649</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69" t="s">
         <v>1166</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
       <c r="L13" s="31" t="s">
         <v>860</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
     </row>
     <row r="14" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="69" t="s">
         <v>1167</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="69" t="s">
         <v>651</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69" t="s">
         <v>1168</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
       <c r="L14" s="31" t="s">
         <v>860</v>
       </c>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31"/>
@@ -36178,7 +36119,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="72" t="s">
         <v>1197</v>
       </c>
       <c r="J26" s="31"/>
@@ -36317,7 +36258,7 @@
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
-      <c r="I29" s="74" t="s">
+      <c r="I29" s="72" t="s">
         <v>1210</v>
       </c>
       <c r="J29" s="31" t="n">
@@ -36345,101 +36286,101 @@
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
     </row>
-    <row r="30" s="72" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="70" t="s">
+    <row r="30" s="71" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="69" t="s">
         <v>741</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="69" t="s">
         <v>1211</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>1212</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70" t="s">
+      <c r="F30" s="69"/>
+      <c r="G30" s="69" t="s">
         <v>1213</v>
       </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70" t="s">
+      <c r="H30" s="69"/>
+      <c r="I30" s="69" t="s">
         <v>1214</v>
       </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70" t="s">
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="M30" s="70" t="s">
+      <c r="M30" s="69" t="s">
         <v>1215</v>
       </c>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71" t="s">
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="70" t="s">
         <v>951</v>
       </c>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
     </row>
     <row r="31" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="58" t="s">
         <v>974</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="58" t="s">
         <v>1216</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>1217</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>1218</v>
       </c>
       <c r="E31" s="39" t="s">
         <v>1219</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59" t="s">
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58" t="s">
         <v>1220</v>
       </c>
-      <c r="J31" s="59" t="n">
+      <c r="J31" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
       <c r="M31" s="31" t="s">
         <v>1221</v>
       </c>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
       <c r="Q31" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
       <c r="T31" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="31" t="s">
@@ -36469,13 +36410,13 @@
       <c r="M32" s="31" t="s">
         <v>1221</v>
       </c>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
       <c r="Q32" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="R32" s="59"/>
+      <c r="R32" s="58"/>
       <c r="S32" s="31"/>
       <c r="T32" s="31" t="s">
         <v>7</v>
@@ -36500,11 +36441,11 @@
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
       <c r="Q33" s="42"/>
-      <c r="R33" s="59"/>
+      <c r="R33" s="58"/>
       <c r="S33" s="31"/>
       <c r="T33" s="31"/>
       <c r="U33" s="31"/>
@@ -36514,79 +36455,79 @@
       <c r="Y33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="58" t="s">
         <v>576</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="58" t="s">
         <v>1226</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>1227</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="58" t="s">
         <v>1228</v>
       </c>
       <c r="E34" s="34" t="s">
         <v>1229</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59" t="s">
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58" t="s">
         <v>1230</v>
       </c>
-      <c r="J34" s="59" t="n">
+      <c r="J34" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
       <c r="M34" s="31" t="s">
         <v>949</v>
       </c>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
       <c r="Q34" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
       <c r="T34" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="58" t="s">
         <v>1231</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="58" t="s">
         <v>1232</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>1233</v>
       </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="75" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="73" t="s">
         <v>1234</v>
       </c>
-      <c r="J35" s="59" t="n">
+      <c r="J35" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59" t="s">
+      <c r="K35" s="58"/>
+      <c r="L35" s="58" t="s">
         <v>752</v>
       </c>
       <c r="M35" s="31" t="str">
@@ -36596,63 +36537,63 @@
       <c r="Q35" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
       <c r="T35" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-    </row>
-    <row r="36" s="78" customFormat="true" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="76" t="s">
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+    </row>
+    <row r="36" s="76" customFormat="true" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="74" t="s">
         <v>974</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="74" t="s">
         <v>1235</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="74" t="s">
         <v>1236</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="74" t="s">
         <v>1237</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76" t="s">
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74" t="s">
         <v>1239</v>
       </c>
-      <c r="J36" s="76" t="n">
+      <c r="J36" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76" t="s">
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74" t="s">
         <v>1221</v>
       </c>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="77" t="s">
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="75" t="s">
         <v>951</v>
       </c>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" s="74"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="31" t="s">
@@ -36683,13 +36624,13 @@
       <c r="M37" s="31" t="s">
         <v>949</v>
       </c>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="77" t="s">
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="75" t="s">
         <v>951</v>
       </c>
-      <c r="R37" s="76"/>
+      <c r="R37" s="74"/>
       <c r="S37" s="31"/>
       <c r="T37" s="31" t="s">
         <v>7</v>
@@ -36714,11 +36655,11 @@
       <c r="K38" s="31"/>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="76"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="74"/>
       <c r="S38" s="31"/>
       <c r="T38" s="31"/>
       <c r="U38" s="31"/>
@@ -36756,16 +36697,16 @@
       <c r="L39" s="31" t="s">
         <v>1248</v>
       </c>
-      <c r="M39" s="76" t="s">
+      <c r="M39" s="74" t="s">
         <v>1034</v>
       </c>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="77" t="s">
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="75" t="s">
         <v>951</v>
       </c>
-      <c r="R39" s="76"/>
+      <c r="R39" s="74"/>
       <c r="S39" s="31"/>
       <c r="T39" s="31" t="s">
         <v>7</v>
@@ -36806,13 +36747,13 @@
       <c r="M40" s="31" t="s">
         <v>949</v>
       </c>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="77" t="s">
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="75" t="s">
         <v>951</v>
       </c>
-      <c r="R40" s="76"/>
+      <c r="R40" s="74"/>
       <c r="S40" s="31"/>
       <c r="T40" s="31" t="s">
         <v>7</v>
@@ -36837,11 +36778,11 @@
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="76"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="74"/>
       <c r="S41" s="31"/>
       <c r="T41" s="31"/>
       <c r="U41" s="31"/>
@@ -36880,13 +36821,13 @@
       <c r="M42" s="31" t="s">
         <v>987</v>
       </c>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
       <c r="Q42" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="R42" s="59"/>
+      <c r="R42" s="58"/>
       <c r="S42" s="31"/>
       <c r="T42" s="31" t="s">
         <v>7</v>
@@ -36925,13 +36866,13 @@
       <c r="M43" s="31" t="s">
         <v>987</v>
       </c>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
       <c r="Q43" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="R43" s="59"/>
+      <c r="R43" s="58"/>
       <c r="S43" s="31"/>
       <c r="T43" s="31" t="s">
         <v>7</v>
@@ -36972,13 +36913,13 @@
       <c r="M44" s="31" t="s">
         <v>987</v>
       </c>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
       <c r="Q44" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="R44" s="59"/>
+      <c r="R44" s="58"/>
       <c r="S44" s="31"/>
       <c r="T44" s="31" t="s">
         <v>7</v>
@@ -36990,98 +36931,98 @@
       <c r="Y44" s="31"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="58" t="s">
         <v>1263</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="58" t="s">
         <v>1264</v>
       </c>
       <c r="E45" s="34"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="76" t="s">
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="74" t="s">
         <v>1265</v>
       </c>
-      <c r="J45" s="59" t="n">
+      <c r="J45" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
       <c r="M45" s="31" t="s">
         <v>987</v>
       </c>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
       <c r="Q45" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
       <c r="T45" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="58" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="58" t="s">
         <v>1266</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>1267</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="58" t="s">
         <v>1268</v>
       </c>
       <c r="E46" s="34" t="s">
         <v>1269</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
       <c r="I46" s="31" t="s">
         <v>1270</v>
       </c>
-      <c r="J46" s="59" t="n">
+      <c r="J46" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
       <c r="M46" s="31" t="s">
         <v>949</v>
       </c>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
       <c r="Q46" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="58"/>
       <c r="T46" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59" t="s">
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="58" t="s">
         <v>1271</v>
       </c>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
